--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -733,6 +733,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -750,9 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1089,7 +1089,7 @@
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:BK35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1487,14 +1487,14 @@
       <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56">
         <v>44509</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="57"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -1509,10 +1509,10 @@
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="40">
         <v>0</v>
       </c>
@@ -1530,10 +1530,10 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="41">
         <v>1</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="27"/>
@@ -8282,6 +8282,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8492,24 +8509,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C833523-F735-47AF-89F8-C25E14B1C246}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1131FEF-DC10-4FCC-B3EE-58BD775A96E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB82375-2864-4A77-AD64-270BD5069084}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8526,29 +8551,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1131FEF-DC10-4FCC-B3EE-58BD775A96E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C833523-F735-47AF-89F8-C25E14B1C246}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>